--- a/data_historis/SOL_data_historis.xlsx
+++ b/data_historis/SOL_data_historis.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1488"/>
+  <dimension ref="A1:L1495"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68896,6 +68896,328 @@
         </is>
       </c>
     </row>
+    <row r="1489">
+      <c r="A1489" s="1" t="n">
+        <v>1487</v>
+      </c>
+      <c r="B1489" s="2" t="n">
+        <v>45418</v>
+      </c>
+      <c r="C1489" t="n">
+        <v>145.71</v>
+      </c>
+      <c r="D1489" t="n">
+        <v>156.63</v>
+      </c>
+      <c r="E1489" t="n">
+        <v>145.58</v>
+      </c>
+      <c r="F1489" t="n">
+        <v>152.8</v>
+      </c>
+      <c r="G1489" t="n">
+        <v>2926902880</v>
+      </c>
+      <c r="H1489" t="n">
+        <v>68370915819</v>
+      </c>
+      <c r="I1489" t="inlineStr">
+        <is>
+          <t>2024-05-06T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1489" t="inlineStr">
+        <is>
+          <t>2024-05-06T10:13:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1489" t="inlineStr">
+        <is>
+          <t>2024-05-06T03:17:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1489" t="inlineStr">
+        <is>
+          <t>2024-05-06T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1490">
+      <c r="A1490" s="1" t="n">
+        <v>1488</v>
+      </c>
+      <c r="B1490" s="2" t="n">
+        <v>45419</v>
+      </c>
+      <c r="C1490" t="n">
+        <v>152.81</v>
+      </c>
+      <c r="D1490" t="n">
+        <v>159.05</v>
+      </c>
+      <c r="E1490" t="n">
+        <v>148.08</v>
+      </c>
+      <c r="F1490" t="n">
+        <v>148.13</v>
+      </c>
+      <c r="G1490" t="n">
+        <v>2687619013</v>
+      </c>
+      <c r="H1490" t="n">
+        <v>66379410042</v>
+      </c>
+      <c r="I1490" t="inlineStr">
+        <is>
+          <t>2024-05-07T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1490" t="inlineStr">
+        <is>
+          <t>2024-05-07T09:22:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1490" t="inlineStr">
+        <is>
+          <t>2024-05-07T23:58:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1490" t="inlineStr">
+        <is>
+          <t>2024-05-07T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1491">
+      <c r="A1491" s="1" t="n">
+        <v>1489</v>
+      </c>
+      <c r="B1491" s="2" t="n">
+        <v>45420</v>
+      </c>
+      <c r="C1491" t="n">
+        <v>148.13</v>
+      </c>
+      <c r="D1491" t="n">
+        <v>149.81</v>
+      </c>
+      <c r="E1491" t="n">
+        <v>140.17</v>
+      </c>
+      <c r="F1491" t="n">
+        <v>142.29</v>
+      </c>
+      <c r="G1491" t="n">
+        <v>2502237557</v>
+      </c>
+      <c r="H1491" t="n">
+        <v>63761642429</v>
+      </c>
+      <c r="I1491" t="inlineStr">
+        <is>
+          <t>2024-05-08T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1491" t="inlineStr">
+        <is>
+          <t>2024-05-08T02:52:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1491" t="inlineStr">
+        <is>
+          <t>2024-05-08T21:19:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1491" t="inlineStr">
+        <is>
+          <t>2024-05-08T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1492">
+      <c r="A1492" s="1" t="n">
+        <v>1490</v>
+      </c>
+      <c r="B1492" s="2" t="n">
+        <v>45421</v>
+      </c>
+      <c r="C1492" t="n">
+        <v>142.29</v>
+      </c>
+      <c r="D1492" t="n">
+        <v>153.09</v>
+      </c>
+      <c r="E1492" t="n">
+        <v>140.79</v>
+      </c>
+      <c r="F1492" t="n">
+        <v>152.85</v>
+      </c>
+      <c r="G1492" t="n">
+        <v>2249863780</v>
+      </c>
+      <c r="H1492" t="n">
+        <v>68516742033</v>
+      </c>
+      <c r="I1492" t="inlineStr">
+        <is>
+          <t>2024-05-09T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1492" t="inlineStr">
+        <is>
+          <t>2024-05-09T22:49:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1492" t="inlineStr">
+        <is>
+          <t>2024-05-09T11:05:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1492" t="inlineStr">
+        <is>
+          <t>2024-05-09T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1493">
+      <c r="A1493" s="1" t="n">
+        <v>1491</v>
+      </c>
+      <c r="B1493" s="2" t="n">
+        <v>45422</v>
+      </c>
+      <c r="C1493" t="n">
+        <v>152.85</v>
+      </c>
+      <c r="D1493" t="n">
+        <v>155.41</v>
+      </c>
+      <c r="E1493" t="n">
+        <v>144.94</v>
+      </c>
+      <c r="F1493" t="n">
+        <v>146.22</v>
+      </c>
+      <c r="G1493" t="n">
+        <v>2471594251</v>
+      </c>
+      <c r="H1493" t="n">
+        <v>65542239882</v>
+      </c>
+      <c r="I1493" t="inlineStr">
+        <is>
+          <t>2024-05-10T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1493" t="inlineStr">
+        <is>
+          <t>2024-05-10T07:05:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1493" t="inlineStr">
+        <is>
+          <t>2024-05-10T22:31:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1493" t="inlineStr">
+        <is>
+          <t>2024-05-10T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1494">
+      <c r="A1494" s="1" t="n">
+        <v>1492</v>
+      </c>
+      <c r="B1494" s="2" t="n">
+        <v>45423</v>
+      </c>
+      <c r="C1494" t="n">
+        <v>146.22</v>
+      </c>
+      <c r="D1494" t="n">
+        <v>147.43</v>
+      </c>
+      <c r="E1494" t="n">
+        <v>143.33</v>
+      </c>
+      <c r="F1494" t="n">
+        <v>145.31</v>
+      </c>
+      <c r="G1494" t="n">
+        <v>1243751505</v>
+      </c>
+      <c r="H1494" t="n">
+        <v>65162205130</v>
+      </c>
+      <c r="I1494" t="inlineStr">
+        <is>
+          <t>2024-05-11T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1494" t="inlineStr">
+        <is>
+          <t>2024-05-11T01:22:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1494" t="inlineStr">
+        <is>
+          <t>2024-05-11T11:19:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1494" t="inlineStr">
+        <is>
+          <t>2024-05-11T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="1495">
+      <c r="A1495" s="1" t="n">
+        <v>1493</v>
+      </c>
+      <c r="B1495" s="2" t="n">
+        <v>45424</v>
+      </c>
+      <c r="C1495" t="n">
+        <v>145.31</v>
+      </c>
+      <c r="D1495" t="n">
+        <v>147.57</v>
+      </c>
+      <c r="E1495" t="n">
+        <v>142.88</v>
+      </c>
+      <c r="F1495" t="n">
+        <v>143.52</v>
+      </c>
+      <c r="G1495" t="n">
+        <v>936690341</v>
+      </c>
+      <c r="H1495" t="n">
+        <v>64374674548</v>
+      </c>
+      <c r="I1495" t="inlineStr">
+        <is>
+          <t>2024-05-12T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="J1495" t="inlineStr">
+        <is>
+          <t>2024-05-12T06:01:00.000Z</t>
+        </is>
+      </c>
+      <c r="K1495" t="inlineStr">
+        <is>
+          <t>2024-05-12T21:28:00.000Z</t>
+        </is>
+      </c>
+      <c r="L1495" t="inlineStr">
+        <is>
+          <t>2024-05-12T23:59:59.999Z</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
